--- a/xls/AVČR-Ústav chemických procesů AV ČR, v. v. i._Local.xlsx
+++ b/xls/AVČR-Ústav chemických procesů AV ČR, v. v. i._Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="112">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -320,6 +326,30 @@
   </si>
   <si>
     <t>AVČR-Ústav chemických procesů AV ČR, v. v. i.</t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>EI</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
   </si>
 </sst>
 </file>
@@ -677,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +718,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -746,13 +776,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.167</v>
@@ -761,48 +797,54 @@
         <v>5.316</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P2">
         <v>67985858</v>
       </c>
       <c r="Q2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T2" t="s">
+        <v>104</v>
+      </c>
+      <c r="U2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -811,48 +853,54 @@
         <v>12.276042</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P3">
         <v>67985858</v>
       </c>
       <c r="Q3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4">
         <v>2012</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -861,48 +909,54 @@
         <v>16.875</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P4">
         <v>67985858</v>
       </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T4" t="s">
+        <v>106</v>
+      </c>
+      <c r="U4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5">
         <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -911,48 +965,54 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P5">
         <v>67985858</v>
       </c>
       <c r="Q5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T5" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>2011</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>0.57099998</v>
@@ -961,48 +1021,54 @@
         <v>10.506</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P6">
         <v>67985858</v>
       </c>
       <c r="Q6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T6" t="s">
+        <v>106</v>
+      </c>
+      <c r="U6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7">
         <v>2011</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>0.66666669</v>
@@ -1011,48 +1077,54 @@
         <v>12.257</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P7">
         <v>67985858</v>
       </c>
       <c r="Q7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T7" t="s">
+        <v>106</v>
+      </c>
+      <c r="U7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8">
         <v>2011</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8">
         <v>0.167</v>
@@ -1061,48 +1133,54 @@
         <v>3.0079999</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P8">
         <v>67985858</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T8" t="s">
+        <v>107</v>
+      </c>
+      <c r="U8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9">
         <v>2011</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9">
         <v>0.80000001</v>
@@ -1111,48 +1189,54 @@
         <v>14.708</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L9" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P9">
         <v>67985858</v>
       </c>
       <c r="Q9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T9" t="s">
+        <v>104</v>
+      </c>
+      <c r="U9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>2011</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10">
         <v>0.1</v>
@@ -1161,48 +1245,54 @@
         <v>1.839</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P10">
         <v>67985858</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T10" t="s">
+        <v>106</v>
+      </c>
+      <c r="U10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>2011</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1211,48 +1301,54 @@
         <v>18.386</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P11">
         <v>67985858</v>
       </c>
       <c r="Q11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T11" t="s">
+        <v>106</v>
+      </c>
+      <c r="U11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>2011</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C12">
         <v>0.8888889000000001</v>
@@ -1261,48 +1357,54 @@
         <v>14.166</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P12">
         <v>67985858</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T12" t="s">
+        <v>108</v>
+      </c>
+      <c r="U12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>2015</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1311,48 +1413,54 @@
         <v>9.970014599999999</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P13">
         <v>67985858</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T13" t="s">
+        <v>106</v>
+      </c>
+      <c r="U13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C14">
         <v>0.25</v>
@@ -1361,48 +1469,54 @@
         <v>2.4925036</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P14">
         <v>67985858</v>
       </c>
       <c r="Q14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T14" t="s">
+        <v>106</v>
+      </c>
+      <c r="U14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>2014</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1411,48 +1525,54 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G15" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I15" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L15" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P15">
         <v>67985858</v>
       </c>
       <c r="Q15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T15" t="s">
+        <v>109</v>
+      </c>
+      <c r="U15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>2011</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
         <v>0.66666669</v>
@@ -1461,48 +1581,54 @@
         <v>7.968999900000001</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I16" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K16" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P16">
         <v>67985858</v>
       </c>
       <c r="Q16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T16" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>2012</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>0.167</v>
@@ -1511,48 +1637,54 @@
         <v>2.813</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K17" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P17">
         <v>67985858</v>
       </c>
       <c r="Q17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T17" t="s">
+        <v>106</v>
+      </c>
+      <c r="U17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1561,48 +1693,54 @@
         <v>15.937</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K18" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P18">
         <v>67985858</v>
       </c>
       <c r="Q18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T18" t="s">
+        <v>108</v>
+      </c>
+      <c r="U18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>2012</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>0.667</v>
@@ -1611,48 +1749,54 @@
         <v>7.901</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I19" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K19" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P19">
         <v>67985858</v>
       </c>
       <c r="Q19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T19" t="s">
+        <v>106</v>
+      </c>
+      <c r="U19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20">
         <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -1661,48 +1805,54 @@
         <v>16.875</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I20" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P20">
         <v>67985858</v>
       </c>
       <c r="Q20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R20" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+        <v>103</v>
+      </c>
+      <c r="T20" t="s">
+        <v>106</v>
+      </c>
+      <c r="U20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21">
         <v>2015</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>0.22222222</v>
@@ -1711,40 +1861,46 @@
         <v>2.2155588</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K21" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="P21">
         <v>67985858</v>
       </c>
       <c r="Q21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="R21" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="T21" t="s">
+        <v>106</v>
+      </c>
+      <c r="U21" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
